--- a/Test Execution/Sangeetha/Testcase- Insurance Anjana.xlsx
+++ b/Test Execution/Sangeetha/Testcase- Insurance Anjana.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="600">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2453,13 +2453,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2767,7 +2767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2775,16 +2775,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S746"/>
+  <dimension ref="A1:S779"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A644" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A652" sqref="A652"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H732" sqref="H732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="32.140625" style="9" customWidth="1"/>
@@ -2800,7 +2800,7 @@
     <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="25.5">
+    <row r="1" spans="1:19" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2840,14 +2840,14 @@
       <c r="M1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="R1" s="30" t="s">
+      <c r="P1" s="30"/>
+      <c r="R1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="30"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1" ht="71.25" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="S2" s="5">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="30">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="S3" s="5">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1" ht="30">
@@ -9567,7 +9567,7 @@
       <c r="L649" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M649" s="31" t="s">
+      <c r="M649" s="29" t="s">
         <v>599</v>
       </c>
     </row>
@@ -9976,21 +9976,23 @@
       </c>
     </row>
     <row r="691" spans="1:12" ht="30">
-      <c r="F691" s="23" t="s">
+      <c r="F691" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G691" s="23" t="s">
+      <c r="G691" s="9" t="s">
         <v>240</v>
       </c>
+      <c r="K691" s="22"/>
       <c r="L691" s="3"/>
     </row>
     <row r="692" spans="1:12" ht="45">
-      <c r="F692" s="23" t="s">
+      <c r="F692" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G692" s="23" t="s">
+      <c r="G692" s="9" t="s">
         <v>485</v>
       </c>
+      <c r="K692" s="22"/>
       <c r="L692" s="3"/>
     </row>
     <row r="693" spans="1:12" ht="30">
@@ -10000,378 +10002,777 @@
       <c r="G693" s="9" t="s">
         <v>487</v>
       </c>
+      <c r="K693" s="22"/>
       <c r="L693" s="3"/>
     </row>
     <row r="694" spans="1:12">
+      <c r="K694" s="22"/>
       <c r="L694" s="3"/>
     </row>
-    <row r="698" spans="1:12" ht="45">
-      <c r="A698" s="9" t="s">
+    <row r="695" spans="1:12" ht="45">
+      <c r="A695" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="B698" s="9" t="s">
+      <c r="B695" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C698" s="4" t="s">
+      <c r="C695" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D698" s="23" t="s">
+      <c r="D695" s="23" t="s">
         <v>496</v>
       </c>
+      <c r="F695" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K695" s="22"/>
+      <c r="L695" s="3"/>
+    </row>
+    <row r="696" spans="1:12" ht="30">
+      <c r="E696" s="9">
+        <v>1</v>
+      </c>
+      <c r="F696" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G696" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="K696" s="22"/>
+      <c r="L696" s="3"/>
+    </row>
+    <row r="697" spans="1:12" ht="45">
+      <c r="E697" s="9">
+        <v>2</v>
+      </c>
+      <c r="F697" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="G697" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="K697" s="22"/>
+      <c r="L697" s="3"/>
+    </row>
+    <row r="698" spans="1:12" ht="30">
+      <c r="E698" s="9">
+        <v>3</v>
+      </c>
       <c r="F698" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G698" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="K698" s="22"/>
+      <c r="L698" s="3"/>
+    </row>
+    <row r="699" spans="1:12" ht="45">
+      <c r="E699" s="9">
+        <v>4</v>
+      </c>
+      <c r="F699" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="G699" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="K699" s="22"/>
+      <c r="L699" s="3"/>
+    </row>
+    <row r="700" spans="1:12" ht="30">
+      <c r="E700" s="9">
+        <v>5</v>
+      </c>
+      <c r="F700" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="G700" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="K700" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="L700" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="701" spans="1:12">
+      <c r="K701" s="22"/>
+      <c r="L701" s="3"/>
+    </row>
+    <row r="702" spans="1:12">
+      <c r="K702" s="22"/>
+      <c r="L702" s="3"/>
+    </row>
+    <row r="703" spans="1:12" ht="45">
+      <c r="A703" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B703" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C703" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D703" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="F703" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K698" s="22"/>
-    </row>
-    <row r="699" spans="1:12" ht="30">
-      <c r="F699" s="23" t="s">
+      <c r="K703" s="22"/>
+      <c r="L703" s="3"/>
+    </row>
+    <row r="704" spans="1:12" ht="30">
+      <c r="E704" s="9">
+        <v>1</v>
+      </c>
+      <c r="F704" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G699" s="23" t="s">
+      <c r="G704" s="9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="700" spans="1:12" ht="45">
-      <c r="F700" s="23" t="s">
-        <v>585</v>
-      </c>
-      <c r="G700" s="23" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="701" spans="1:12" ht="30">
-      <c r="F701" s="9" t="s">
+      <c r="H704" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K704" s="22"/>
+      <c r="L704" s="3"/>
+    </row>
+    <row r="705" spans="1:12" ht="45">
+      <c r="E705" s="9">
+        <v>2</v>
+      </c>
+      <c r="F705" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="G705" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="H705" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K705" s="22"/>
+      <c r="L705" s="3"/>
+    </row>
+    <row r="706" spans="1:12" ht="30">
+      <c r="E706" s="9">
+        <v>3</v>
+      </c>
+      <c r="F706" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="G701" s="9" t="s">
+      <c r="G706" s="9" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="702" spans="1:12" ht="45">
-      <c r="F702" s="9" t="s">
+      <c r="H706" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K706" s="22"/>
+      <c r="L706" s="3"/>
+    </row>
+    <row r="707" spans="1:12" ht="45">
+      <c r="E707" s="9">
+        <v>4</v>
+      </c>
+      <c r="F707" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="G702" s="9" t="s">
+      <c r="G707" s="9" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="703" spans="1:12" ht="30">
-      <c r="F703" s="9" t="s">
+      <c r="H707" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K707" s="22"/>
+      <c r="L707" s="3"/>
+    </row>
+    <row r="708" spans="1:12" ht="30">
+      <c r="E708" s="9">
+        <v>5</v>
+      </c>
+      <c r="F708" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="G703" s="9" t="s">
+      <c r="G708" s="9" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="706" spans="1:7" ht="45">
-      <c r="A706" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="B706" s="9" t="s">
+      <c r="H708" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K708" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="L708" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12">
+      <c r="K709" s="22"/>
+      <c r="L709" s="3"/>
+    </row>
+    <row r="710" spans="1:12">
+      <c r="K710" s="22"/>
+      <c r="L710" s="3"/>
+    </row>
+    <row r="711" spans="1:12" ht="45">
+      <c r="A711" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B711" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C706" s="4" t="s">
+      <c r="C711" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D706" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="F706" s="9" t="s">
+      <c r="D711" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="F711" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="707" spans="1:7" ht="30">
-      <c r="F707" s="23" t="s">
+      <c r="K711" s="22"/>
+      <c r="L711" s="3"/>
+    </row>
+    <row r="712" spans="1:12" ht="30">
+      <c r="E712" s="9">
+        <v>1</v>
+      </c>
+      <c r="F712" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G707" s="23" t="s">
+      <c r="G712" s="9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="708" spans="1:7" ht="45">
-      <c r="F708" s="23" t="s">
-        <v>587</v>
-      </c>
-      <c r="G708" s="23" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="709" spans="1:7" ht="30">
-      <c r="F709" s="9" t="s">
+      <c r="H712" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K712" s="22"/>
+      <c r="L712" s="3"/>
+    </row>
+    <row r="713" spans="1:12" ht="45">
+      <c r="E713" s="9">
+        <v>2</v>
+      </c>
+      <c r="F713" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G713" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="H713" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K713" s="22"/>
+      <c r="L713" s="3"/>
+    </row>
+    <row r="714" spans="1:12" ht="30">
+      <c r="E714" s="9">
+        <v>3</v>
+      </c>
+      <c r="F714" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="G709" s="9" t="s">
+      <c r="G714" s="9" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="710" spans="1:7" ht="45">
-      <c r="F710" s="9" t="s">
+      <c r="H714" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K714" s="22"/>
+      <c r="L714" s="3"/>
+    </row>
+    <row r="715" spans="1:12" ht="45">
+      <c r="E715" s="9">
+        <v>4</v>
+      </c>
+      <c r="F715" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="G710" s="9" t="s">
+      <c r="G715" s="9" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="711" spans="1:7" ht="30">
-      <c r="F711" s="9" t="s">
+      <c r="H715" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K715" s="22"/>
+      <c r="L715" s="3"/>
+    </row>
+    <row r="716" spans="1:12" ht="30">
+      <c r="E716" s="9">
+        <v>5</v>
+      </c>
+      <c r="F716" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="G711" s="9" t="s">
+      <c r="G716" s="9" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="714" spans="1:7" ht="45">
-      <c r="A714" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="B714" s="9" t="s">
+      <c r="H716" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K716" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="L716" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12">
+      <c r="K717" s="22"/>
+      <c r="L717" s="3"/>
+    </row>
+    <row r="718" spans="1:12">
+      <c r="K718" s="22"/>
+      <c r="L718" s="3"/>
+    </row>
+    <row r="719" spans="1:12" ht="45">
+      <c r="A719" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B719" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C714" s="4" t="s">
+      <c r="C719" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D714" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="F714" s="9" t="s">
+      <c r="D719" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="F719" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="715" spans="1:7" ht="30">
-      <c r="F715" s="23" t="s">
+      <c r="K719" s="22"/>
+      <c r="L719" s="3"/>
+    </row>
+    <row r="720" spans="1:12" ht="30">
+      <c r="E720" s="9">
+        <v>1</v>
+      </c>
+      <c r="F720" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G715" s="23" t="s">
+      <c r="G720" s="9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="716" spans="1:7" ht="45">
-      <c r="F716" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="G716" s="23" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="717" spans="1:7" ht="30">
-      <c r="F717" s="9" t="s">
+      <c r="H720" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K720" s="22"/>
+      <c r="L720" s="3"/>
+    </row>
+    <row r="721" spans="1:12" ht="45">
+      <c r="E721" s="9">
+        <v>2</v>
+      </c>
+      <c r="F721" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="G721" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="H721" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K721" s="22"/>
+      <c r="L721" s="3"/>
+    </row>
+    <row r="722" spans="1:12" ht="30">
+      <c r="E722" s="9">
+        <v>3</v>
+      </c>
+      <c r="F722" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="G717" s="9" t="s">
+      <c r="G722" s="9" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="718" spans="1:7" ht="45">
-      <c r="F718" s="9" t="s">
+      <c r="H722" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K722" s="22"/>
+      <c r="L722" s="3"/>
+    </row>
+    <row r="723" spans="1:12" ht="45">
+      <c r="E723" s="9">
+        <v>4</v>
+      </c>
+      <c r="F723" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="G718" s="9" t="s">
+      <c r="G723" s="9" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="719" spans="1:7" ht="30">
-      <c r="F719" s="9" t="s">
+      <c r="H723" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K723" s="22"/>
+      <c r="L723" s="3"/>
+    </row>
+    <row r="724" spans="1:12" ht="30">
+      <c r="E724" s="9">
+        <v>5</v>
+      </c>
+      <c r="F724" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="G724" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="H724" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K724" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="L724" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="725" spans="1:12">
+      <c r="K725" s="22"/>
+      <c r="L725" s="3"/>
+    </row>
+    <row r="726" spans="1:12">
+      <c r="K726" s="22"/>
+      <c r="L726" s="3"/>
+    </row>
+    <row r="727" spans="1:12" ht="45">
+      <c r="A727" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B727" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C727" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D727" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="F727" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K727" s="22"/>
+      <c r="L727" s="3"/>
+    </row>
+    <row r="728" spans="1:12" ht="30">
+      <c r="E728" s="9">
+        <v>1</v>
+      </c>
+      <c r="F728" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G728" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="K728" s="22"/>
+      <c r="L728" s="3"/>
+    </row>
+    <row r="729" spans="1:12" ht="30">
+      <c r="E729" s="9">
+        <v>2</v>
+      </c>
+      <c r="F729" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="G729" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="K729" s="22"/>
+      <c r="L729" s="3"/>
+    </row>
+    <row r="730" spans="1:12" ht="30">
+      <c r="E730" s="9">
+        <v>3</v>
+      </c>
+      <c r="F730" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G730" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="K730" s="22"/>
+      <c r="L730" s="3"/>
+    </row>
+    <row r="731" spans="1:12" ht="45">
+      <c r="E731" s="9">
+        <v>4</v>
+      </c>
+      <c r="F731" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="G731" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="K731" s="22"/>
+      <c r="L731" s="3"/>
+    </row>
+    <row r="732" spans="1:12" ht="30">
+      <c r="E732" s="9">
+        <v>5</v>
+      </c>
+      <c r="F732" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="G719" s="9" t="s">
+      <c r="G732" s="9" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="722" spans="1:7" ht="45">
-      <c r="A722" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="B722" s="9" t="s">
+      <c r="K732" s="22"/>
+      <c r="L732" s="3"/>
+    </row>
+    <row r="733" spans="1:12">
+      <c r="K733" s="22"/>
+      <c r="L733" s="3"/>
+    </row>
+    <row r="734" spans="1:12">
+      <c r="K734" s="22"/>
+      <c r="L734" s="3"/>
+    </row>
+    <row r="735" spans="1:12" ht="45">
+      <c r="A735" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B735" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C722" s="4" t="s">
+      <c r="C735" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D722" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="F722" s="9" t="s">
+      <c r="D735" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="F735" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="723" spans="1:7" ht="30">
-      <c r="F723" s="23" t="s">
+      <c r="K735" s="22"/>
+      <c r="L735" s="3"/>
+    </row>
+    <row r="736" spans="1:12" ht="30">
+      <c r="F736" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="G723" s="23" t="s">
+      <c r="G736" s="23" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="724" spans="1:7" ht="45">
-      <c r="F724" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="G724" s="23" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="725" spans="1:7" ht="30">
-      <c r="F725" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="G725" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="726" spans="1:7" ht="45">
-      <c r="F726" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="G726" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="727" spans="1:7" ht="30">
-      <c r="F727" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="G727" s="9" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="730" spans="1:7" ht="45">
-      <c r="A730" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="B730" s="9" t="s">
+      <c r="K736" s="22"/>
+      <c r="L736" s="3"/>
+    </row>
+    <row r="737" spans="1:12" ht="30">
+      <c r="F737" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="G737" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="K737" s="22"/>
+      <c r="L737" s="3"/>
+    </row>
+    <row r="738" spans="1:12" ht="60">
+      <c r="F738" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="G738" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="K738" s="22"/>
+      <c r="L738" s="3"/>
+    </row>
+    <row r="739" spans="1:12">
+      <c r="K739" s="22"/>
+      <c r="L739" s="3"/>
+    </row>
+    <row r="740" spans="1:12" ht="45">
+      <c r="A740" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B740" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C730" s="4" t="s">
+      <c r="C740" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D730" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="F730" s="9" t="s">
+      <c r="D740" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="F740" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="731" spans="1:7" ht="30">
-      <c r="F731" s="23" t="s">
+      <c r="K740" s="22"/>
+      <c r="L740" s="3"/>
+    </row>
+    <row r="741" spans="1:12" ht="30">
+      <c r="F741" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="G731" s="23" t="s">
+      <c r="G741" s="23" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="732" spans="1:7" ht="30">
-      <c r="F732" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="G732" s="23" t="s">
+      <c r="K741" s="22"/>
+      <c r="L741" s="3"/>
+    </row>
+    <row r="742" spans="1:12" ht="30">
+      <c r="F742" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="G742" s="23" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="733" spans="1:7" ht="30">
-      <c r="F733" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="G733" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="734" spans="1:7" ht="45">
-      <c r="F734" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="G734" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="735" spans="1:7" ht="30">
-      <c r="F735" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="G735" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="738" spans="1:7" ht="45">
-      <c r="A738" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="B738" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C738" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D738" s="23" t="s">
-        <v>537</v>
-      </c>
-      <c r="F738" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="739" spans="1:7" ht="30">
-      <c r="F739" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="G739" s="23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="740" spans="1:7" ht="30">
-      <c r="F740" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="G740" s="23" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="741" spans="1:7" ht="60">
-      <c r="F741" s="9" t="s">
+      <c r="K742" s="22"/>
+      <c r="L742" s="3"/>
+    </row>
+    <row r="743" spans="1:12" ht="60">
+      <c r="F743" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="G741" s="9" t="s">
+      <c r="G743" s="9" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="743" spans="1:7" ht="45">
-      <c r="A743" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="B743" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C743" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D743" s="23" t="s">
-        <v>537</v>
-      </c>
-      <c r="F743" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="744" spans="1:7" ht="30">
-      <c r="F744" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="G744" s="23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="745" spans="1:7" ht="30">
-      <c r="F745" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="G745" s="23" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="746" spans="1:7" ht="60">
-      <c r="F746" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="G746" s="9" t="s">
-        <v>503</v>
-      </c>
+      <c r="K743" s="22"/>
+      <c r="L743" s="3"/>
+    </row>
+    <row r="744" spans="1:12">
+      <c r="K744" s="22"/>
+      <c r="L744" s="3"/>
+    </row>
+    <row r="745" spans="1:12">
+      <c r="K745" s="22"/>
+      <c r="L745" s="3"/>
+    </row>
+    <row r="746" spans="1:12">
+      <c r="K746" s="22"/>
+      <c r="L746" s="3"/>
+    </row>
+    <row r="747" spans="1:12">
+      <c r="K747" s="22"/>
+      <c r="L747" s="3"/>
+    </row>
+    <row r="748" spans="1:12">
+      <c r="K748" s="22"/>
+      <c r="L748" s="3"/>
+    </row>
+    <row r="749" spans="1:12">
+      <c r="K749" s="22"/>
+      <c r="L749" s="3"/>
+    </row>
+    <row r="750" spans="1:12">
+      <c r="K750" s="22"/>
+      <c r="L750" s="3"/>
+    </row>
+    <row r="751" spans="1:12">
+      <c r="K751" s="22"/>
+      <c r="L751" s="3"/>
+    </row>
+    <row r="752" spans="1:12">
+      <c r="K752" s="22"/>
+      <c r="L752" s="3"/>
+    </row>
+    <row r="753" spans="11:12">
+      <c r="K753" s="22"/>
+      <c r="L753" s="3"/>
+    </row>
+    <row r="754" spans="11:12">
+      <c r="K754" s="22"/>
+      <c r="L754" s="3"/>
+    </row>
+    <row r="755" spans="11:12">
+      <c r="K755" s="22"/>
+      <c r="L755" s="3"/>
+    </row>
+    <row r="756" spans="11:12">
+      <c r="K756" s="22"/>
+      <c r="L756" s="3"/>
+    </row>
+    <row r="757" spans="11:12">
+      <c r="K757" s="22"/>
+      <c r="L757" s="3"/>
+    </row>
+    <row r="758" spans="11:12">
+      <c r="K758" s="22"/>
+      <c r="L758" s="3"/>
+    </row>
+    <row r="759" spans="11:12">
+      <c r="K759" s="22"/>
+      <c r="L759" s="3"/>
+    </row>
+    <row r="760" spans="11:12">
+      <c r="K760" s="22"/>
+      <c r="L760" s="3"/>
+    </row>
+    <row r="761" spans="11:12">
+      <c r="K761" s="22"/>
+      <c r="L761" s="3"/>
+    </row>
+    <row r="762" spans="11:12">
+      <c r="K762" s="22"/>
+      <c r="L762" s="3"/>
+    </row>
+    <row r="763" spans="11:12">
+      <c r="K763" s="22"/>
+      <c r="L763" s="3"/>
+    </row>
+    <row r="764" spans="11:12">
+      <c r="K764" s="22"/>
+      <c r="L764" s="3"/>
+    </row>
+    <row r="765" spans="11:12">
+      <c r="K765" s="22"/>
+      <c r="L765" s="3"/>
+    </row>
+    <row r="766" spans="11:12">
+      <c r="K766" s="22"/>
+      <c r="L766" s="3"/>
+    </row>
+    <row r="767" spans="11:12">
+      <c r="K767" s="22"/>
+      <c r="L767" s="3"/>
+    </row>
+    <row r="768" spans="11:12">
+      <c r="K768" s="22"/>
+      <c r="L768" s="3"/>
+    </row>
+    <row r="769" spans="11:12">
+      <c r="K769" s="22"/>
+      <c r="L769" s="3"/>
+    </row>
+    <row r="770" spans="11:12">
+      <c r="K770" s="22"/>
+      <c r="L770" s="3"/>
+    </row>
+    <row r="771" spans="11:12">
+      <c r="K771" s="22"/>
+      <c r="L771" s="3"/>
+    </row>
+    <row r="772" spans="11:12">
+      <c r="K772" s="22"/>
+      <c r="L772" s="3"/>
+    </row>
+    <row r="773" spans="11:12">
+      <c r="K773" s="22"/>
+      <c r="L773" s="3"/>
+    </row>
+    <row r="774" spans="11:12">
+      <c r="K774" s="22"/>
+      <c r="L774" s="3"/>
+    </row>
+    <row r="775" spans="11:12">
+      <c r="K775" s="22"/>
+      <c r="L775" s="3"/>
+    </row>
+    <row r="776" spans="11:12">
+      <c r="K776" s="22"/>
+      <c r="L776" s="3"/>
+    </row>
+    <row r="777" spans="11:12">
+      <c r="K777" s="22"/>
+      <c r="L777" s="3"/>
+    </row>
+    <row r="778" spans="11:12">
+      <c r="L778" s="3"/>
+    </row>
+    <row r="779" spans="11:12">
+      <c r="L779" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10380,22 +10781,22 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C742 C734:C736 C726:C728 C718:C720 C710:C712 C702:C704 C694:C696 C686:C689 C633 C639 C645 C651 C657 C663 C669 C675 C626:C627">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C739 C731:C733 C723:C725 C715:C717 C707:C709 C699:C701 C626:C627 C675 C669 C663 C657 C651 C645 C639 C633 C686:C689 C694">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C743:C746 C738:C741 C730:C733 C722:C725 C714:C717 C706:C709 C698:C701 C690:C693 C634:C638 C640:C644 C646:C650 C652:C656 C658:C662 C664:C668 C670:C674 C676:C685 C121:C625 C628:C632 C57:C64 C2:C54 K2:K47 C66:C118 K64:K473 K478 K484 K496">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C740:C743 C735:C738 C727:C730 C719:C722 C711:C714 C703:C706 C695:C698 K496 K484 K478 K64:K473 C66:C118 K2:K47 C2:C54 C57:C64 C628:C632 C121:C625 C676:C685 C670:C674 C664:C668 C658:C662 C652:C656 C646:C650 C640:C644 C634:C638 C690:C693">
       <formula1>"Anjana S, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K474:K477 K479:K483 K485:K495 K698 K658 K664 K670 K677 K682 K690 K497:K648 K650:K653">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K474:K477 K650:K653 K497:K648 K479:K483 K682 K677 K670 K664 K658 K485:K495 K691:K699 K701:K707 K709:K715 K717:K723 K725:K777">
       <formula1>"Anjana S, Salini S, Preethi J, Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143 B378 B370:B371 B363:B364 B357 B288 B292 B272 B256 B263:B264 B249 B237:B239 B290 B246:B247 B230 B226 B302 B296 B280 B135 B127 B133 B121 B111:B112 B105 B103 B97 B95 B88:B89 B157 B151 B221:B222 B203 B189 B176 B174 B80:B82 B74 B332 B325:B326 B304 B48 B216 B210 B66 B64 B318:B319 B38:B40 B312 B57 B196 B30:B32 B22:B25 B347:B348 B310 B8 B184 B14:B16 B340:B341 B334 B2 B168 B165 B159 B141 B149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143 B149 B141 B159 B165 B168 B2 B334 B340:B341 B14:B16 B184 B8 B310 B347:B348 B22:B25 B30:B32 B196 B57 B312 B38:B40 B318:B319 B64 B66 B210 B216 B48 B304 B325:B326 B332 B74 B80:B82 B174 B176 B189 B203 B221:B222 B151 B157 B88:B89 B95 B97 B103 B105 B111:B112 B121 B133 B127 B135 B280 B296 B302 B226 B230 B246:B247 B290 B237:B239 B249 B263:B264 B256 B272 B292 B288 B357 B363:B364 B370:B371 B378">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L48 L682:L694 L582:L680 L64:L580">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L48 L64:L580 L582:L680 L682:L779">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K649">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K649 K690 K700 K708 K716 K724">
       <formula1>"Anjana S, Salini S, Preethi Pathrose, Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
   </dataValidations>
